--- a/hh_movie_store/schedule/일정 수립.xlsx
+++ b/hh_movie_store/schedule/일정 수립.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nak36\Desktop\HH MOVIE GIT\final-pjt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nak36\Desktop\HH_MOVIE_GIT\HH MOVIE GIT 4\final-pjt\hh_movie_store\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DD5C31-8A8D-4F4E-86BF-5829E81090AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87C2170-58DB-4DC7-AB44-9ACB8890828A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BACCE05D-5B95-47C6-BFA4-DC4D57C4278F}"/>
+    <workbookView xWindow="12300" yWindow="1815" windowWidth="13155" windowHeight="11385" xr2:uid="{BACCE05D-5B95-47C6-BFA4-DC4D57C4278F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1241,10 +1241,10 @@
   <dimension ref="B1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/hh_movie_store/schedule/일정 수립.xlsx
+++ b/hh_movie_store/schedule/일정 수립.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nak36\Desktop\HH_MOVIE_GIT\HH MOVIE GIT 4\final-pjt\hh_movie_store\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nak36\Desktop\HH_MOVIE_GIT\HH MOVIE\final-pjt\hh_movie_store\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87C2170-58DB-4DC7-AB44-9ACB8890828A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048ACBCD-696C-4257-B437-A9FEB87236CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12300" yWindow="1815" windowWidth="13155" windowHeight="11385" xr2:uid="{BACCE05D-5B95-47C6-BFA4-DC4D57C4278F}"/>
+    <workbookView xWindow="4620" yWindow="1530" windowWidth="16575" windowHeight="13380" xr2:uid="{BACCE05D-5B95-47C6-BFA4-DC4D57C4278F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1241,10 +1241,10 @@
   <dimension ref="B1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/hh_movie_store/schedule/일정 수립.xlsx
+++ b/hh_movie_store/schedule/일정 수립.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nak36\Desktop\HH_MOVIE_GIT\HH MOVIE\final-pjt\hh_movie_store\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nak36\Desktop\HH_MOVIE_GIT\HH MOVIE GIT 6\final-pjt\hh_movie_store\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048ACBCD-696C-4257-B437-A9FEB87236CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8F6ACE-DF03-4C5D-AF9A-A1249BAB1A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1530" windowWidth="16575" windowHeight="13380" xr2:uid="{BACCE05D-5B95-47C6-BFA4-DC4D57C4278F}"/>
+    <workbookView xWindow="30435" yWindow="1350" windowWidth="16575" windowHeight="13380" xr2:uid="{BACCE05D-5B95-47C6-BFA4-DC4D57C4278F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1241,10 +1241,10 @@
   <dimension ref="B1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
